--- a/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 3,54</t>
+          <t>-10,67; 3,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 13,69</t>
+          <t>-2,04; 13,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 11,53</t>
+          <t>-6,13; 10,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 24,12</t>
+          <t>8,53; 22,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,37</t>
+          <t>-6,46; 5,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 16,89</t>
+          <t>5,74; 16,72</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 17,08</t>
+          <t>-38,77; 15,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 65,51</t>
+          <t>-8,03; 61,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 38,08</t>
+          <t>-15,11; 35,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,8; 82,66</t>
+          <t>21,32; 75,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 21,23</t>
+          <t>-19,75; 20,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 62,77</t>
+          <t>18,17; 64,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -2,64</t>
+          <t>-12,57; -2,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,22; -4,11</t>
+          <t>-13,49; -3,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 8,29</t>
+          <t>-3,58; 8,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -6,68</t>
+          <t>-18,5; -6,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,78; -14,36</t>
+          <t>-25,53; -14,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -0,91</t>
+          <t>-12,33; -1,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -5,62</t>
+          <t>-13,94; -6,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,25; -10,64</t>
+          <t>-18,1; -10,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,95</t>
+          <t>-6,06; 2,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,06; -13,21</t>
+          <t>-50,63; -12,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -20,98</t>
+          <t>-55,21; -19,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 43,92</t>
+          <t>-14,31; 42,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,85; -17,48</t>
+          <t>-41,13; -16,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,36; -36,64</t>
+          <t>-57,67; -36,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,29; -2,48</t>
+          <t>-27,46; -3,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,35; -19,4</t>
+          <t>-41,44; -19,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,9; -35,79</t>
+          <t>-53,84; -34,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 6,58</t>
+          <t>-17,8; 7,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 8,62</t>
+          <t>-2,8; 9,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,94</t>
+          <t>-5,0; 5,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 26,94</t>
+          <t>14,49; 26,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 6,02</t>
+          <t>-7,45; 6,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 2,48</t>
+          <t>-10,45; 2,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 16,15</t>
+          <t>3,22; 15,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,74</t>
+          <t>-3,4; 5,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,38</t>
+          <t>-6,92; 2,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,6; 19,64</t>
+          <t>10,34; 19,59</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 86,78</t>
+          <t>-18,19; 87,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 61,24</t>
+          <t>-31,31; 50,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,34; 270,77</t>
+          <t>88,05; 260,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 25,46</t>
+          <t>-24,75; 25,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 10,13</t>
+          <t>-35,41; 10,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,92; 67,59</t>
+          <t>10,27; 68,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 32,46</t>
+          <t>-15,48; 32,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 13,58</t>
+          <t>-30,5; 11,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,76; 108,9</t>
+          <t>45,47; 110,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 2,5</t>
+          <t>-8,07; 2,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 7,71</t>
+          <t>-4,76; 8,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 18,71</t>
+          <t>2,93; 17,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 7,21</t>
+          <t>-5,43; 6,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 9,78</t>
+          <t>-4,72; 9,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 13,87</t>
+          <t>-0,95; 13,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,4</t>
+          <t>-4,92; 3,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 6,89</t>
+          <t>-2,96; 6,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 14,28</t>
+          <t>4,18; 14,81</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 13,54</t>
+          <t>-32,57; 14,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 43,88</t>
+          <t>-20,14; 43,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,09; 102,04</t>
+          <t>12,52; 96,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 23,71</t>
+          <t>-14,19; 22,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 30,33</t>
+          <t>-12,34; 31,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 43,73</t>
+          <t>-1,88; 42,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 13,38</t>
+          <t>-15,98; 12,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 27,05</t>
+          <t>-9,64; 26,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,49; 56,7</t>
+          <t>13,73; 59,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 13,87</t>
+          <t>-0,76; 14,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 13,75</t>
+          <t>-0,19; 14,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 14,74</t>
+          <t>1,93; 16,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,62; 31,98</t>
+          <t>15,34; 33,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 14,71</t>
+          <t>-2,33; 13,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 16,88</t>
+          <t>2,13; 17,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,99; 20,99</t>
+          <t>8,71; 21,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,26; 12,01</t>
+          <t>0,61; 12,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 14,74</t>
+          <t>4,69; 14,46</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 115,46</t>
+          <t>-4,76; 120,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 108,58</t>
+          <t>-2,13; 132,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,8; 129,36</t>
+          <t>8,58; 139,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>45,88; 171,94</t>
+          <t>54,74; 180,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 79,78</t>
+          <t>-9,07; 75,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,87; 94,02</t>
+          <t>7,59; 96,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>41,64; 130,85</t>
+          <t>36,56; 124,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,54; 75,67</t>
+          <t>2,39; 76,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,32; 90,56</t>
+          <t>20,79; 88,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 13,49</t>
+          <t>-1,25; 13,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 9,5</t>
+          <t>-4,4; 9,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,41; 32,12</t>
+          <t>17,32; 32,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 7,61</t>
+          <t>-8,35; 7,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 8,58</t>
+          <t>-6,45; 9,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,45; 32,37</t>
+          <t>17,53; 32,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 7,48</t>
+          <t>-2,42; 8,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 7,18</t>
+          <t>-3,0; 6,87</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,7; 29,99</t>
+          <t>19,68; 30,0</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 85,17</t>
+          <t>-6,4; 85,13</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 58,92</t>
+          <t>-19,95; 60,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>74,04; 198,53</t>
+          <t>71,87; 205,62</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 29,64</t>
+          <t>-24,9; 31,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 33,98</t>
+          <t>-20,45; 36,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>52,0; 127,47</t>
+          <t>51,3; 128,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 35,13</t>
+          <t>-8,88; 37,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 33,44</t>
+          <t>-11,36; 30,46</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>71,56; 140,88</t>
+          <t>72,7; 139,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,27</t>
+          <t>-3,25; 5,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,3</t>
+          <t>5,04; 13,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,29; 17,42</t>
+          <t>7,89; 17,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,41; 11,05</t>
+          <t>1,6; 11,28</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,66</t>
+          <t>6,11; 15,61</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,06; 43,49</t>
+          <t>13,39; 46,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 7,06</t>
+          <t>0,51; 6,96</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,37</t>
+          <t>6,53; 13,01</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,06; 34,54</t>
+          <t>12,95; 35,44</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 42,83</t>
+          <t>-20,71; 40,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>28,36; 109,19</t>
+          <t>30,57; 113,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>51,78; 147,37</t>
+          <t>48,02; 141,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,22; 59,73</t>
+          <t>6,88; 61,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,31; 83,05</t>
+          <t>26,87; 87,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>59,87; 223,57</t>
+          <t>63,37; 239,37</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,18; 44,82</t>
+          <t>3,33; 44,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>36,02; 84,21</t>
+          <t>33,53; 81,57</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>71,3; 202,9</t>
+          <t>71,26; 207,89</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,74</t>
+          <t>1,36; 9,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,27</t>
+          <t>-6,41; 1,29</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,57</t>
+          <t>-5,95; 2,87</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,6</t>
+          <t>1,25; 10,08</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,13</t>
+          <t>-5,08; 4,29</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 7,79</t>
+          <t>-0,76; 7,99</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,06</t>
+          <t>2,56; 8,82</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,87</t>
+          <t>-4,17; 1,96</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,1</t>
+          <t>-2,42; 3,94</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,6; 60,78</t>
+          <t>6,67; 59,03</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 8,42</t>
+          <t>-30,97; 8,54</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 15,78</t>
+          <t>-29,52; 17,2</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>3,5; 44,6</t>
+          <t>4,39; 42,45</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 17,18</t>
+          <t>-18,37; 18,49</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 32,67</t>
+          <t>-3,2; 33,57</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,06; 43,55</t>
+          <t>10,74; 42,43</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 9,07</t>
+          <t>-17,71; 9,25</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 19,09</t>
+          <t>-10,23; 19,19</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,61</t>
+          <t>-1,27; 2,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,23</t>
+          <t>-1,53; 2,21</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,35</t>
+          <t>6,11; 10,35</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,36</t>
+          <t>-0,01; 4,32</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,7</t>
+          <t>-2,64; 1,85</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>7,12; 15,79</t>
+          <t>7,0; 16,26</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,85</t>
+          <t>-0,08; 2,95</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,55</t>
+          <t>-1,48; 1,58</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,92</t>
+          <t>7,63; 13,12</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,18</t>
+          <t>-6,6; 14,51</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 12,95</t>
+          <t>-8,07; 12,82</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>31,33; 60,11</t>
+          <t>32,07; 59,59</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 15,43</t>
+          <t>0,03; 15,7</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 6,03</t>
+          <t>-8,81; 6,47</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>23,74; 53,59</t>
+          <t>23,18; 55,92</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 12,3</t>
+          <t>-0,34; 12,69</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,77</t>
+          <t>-6,07; 6,94</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>30,96; 55,75</t>
+          <t>31,38; 55,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 3,04</t>
+          <t>-11,19; 3,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 13,02</t>
+          <t>-2,12; 13,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 10,78</t>
+          <t>-5,91; 11,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 22,94</t>
+          <t>8,21; 23,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,44</t>
+          <t>-6,33; 5,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 16,72</t>
+          <t>5,42; 16,79</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 15,69</t>
+          <t>-39,46; 19,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 61,25</t>
+          <t>-7,61; 63,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 35,07</t>
+          <t>-14,35; 37,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,32; 75,67</t>
+          <t>20,11; 76,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 20,71</t>
+          <t>-19,5; 20,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,17; 64,15</t>
+          <t>17,04; 64,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,57; -2,44</t>
+          <t>-12,78; -2,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -3,75</t>
+          <t>-13,66; -3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 8,07</t>
+          <t>-3,34; 8,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -6,16</t>
+          <t>-19,31; -6,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,53; -14,12</t>
+          <t>-25,25; -14,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,33; -1,25</t>
+          <t>-12,12; -0,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -6,06</t>
+          <t>-14,2; -6,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -10,43</t>
+          <t>-18,27; -10,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 2,23</t>
+          <t>-6,6; 1,69</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,63; -12,05</t>
+          <t>-51,56; -10,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,21; -19,09</t>
+          <t>-55,25; -20,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 42,66</t>
+          <t>-13,63; 44,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,13; -16,03</t>
+          <t>-43,14; -17,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,67; -36,59</t>
+          <t>-57,72; -37,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,46; -3,29</t>
+          <t>-27,4; -1,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,44; -19,98</t>
+          <t>-41,91; -20,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,84; -34,78</t>
+          <t>-53,62; -34,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 7,39</t>
+          <t>-18,81; 5,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 9,06</t>
+          <t>-2,54; 8,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 5,14</t>
+          <t>-4,67; 5,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,49; 26,62</t>
+          <t>13,62; 25,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 6,1</t>
+          <t>-7,72; 6,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 2,66</t>
+          <t>-11,33; 2,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 15,93</t>
+          <t>3,88; 15,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 5,86</t>
+          <t>-3,48; 5,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 2,08</t>
+          <t>-6,4; 1,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,34; 19,59</t>
+          <t>9,91; 19,17</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 87,7</t>
+          <t>-17,65; 77,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 50,99</t>
+          <t>-30,96; 56,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,05; 260,34</t>
+          <t>81,14; 253,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 25,71</t>
+          <t>-24,64; 27,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 10,88</t>
+          <t>-37,41; 10,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,27; 68,54</t>
+          <t>12,72; 68,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 32,12</t>
+          <t>-15,61; 29,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 11,64</t>
+          <t>-28,84; 11,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,47; 110,83</t>
+          <t>44,52; 107,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 2,23</t>
+          <t>-8,26; 2,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 8,03</t>
+          <t>-4,63; 7,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 17,61</t>
+          <t>3,27; 18,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 6,85</t>
+          <t>-6,05; 6,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 9,37</t>
+          <t>-4,47; 9,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 13,47</t>
+          <t>-0,7; 13,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,19</t>
+          <t>-4,87; 3,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 6,74</t>
+          <t>-2,68; 6,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 14,81</t>
+          <t>4,24; 14,48</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 14,54</t>
+          <t>-33,64; 17,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 43,43</t>
+          <t>-20,11; 43,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,52; 96,97</t>
+          <t>13,64; 99,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 22,11</t>
+          <t>-15,81; 22,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 31,11</t>
+          <t>-11,23; 30,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 42,91</t>
+          <t>-1,89; 44,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 12,92</t>
+          <t>-16,13; 11,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 26,36</t>
+          <t>-9,46; 27,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,73; 59,51</t>
+          <t>14,51; 56,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 14,01</t>
+          <t>-2,02; 14,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 14,92</t>
+          <t>-1,02; 13,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 16,04</t>
+          <t>1,18; 15,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,34; 33,67</t>
+          <t>14,19; 32,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 13,96</t>
+          <t>-2,44; 14,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,13; 17,03</t>
+          <t>2,53; 16,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,71; 21,08</t>
+          <t>8,91; 20,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,61; 12,53</t>
+          <t>0,35; 12,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,69; 14,46</t>
+          <t>4,87; 14,64</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 120,33</t>
+          <t>-12,47; 125,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 132,54</t>
+          <t>-8,27; 112,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,58; 139,66</t>
+          <t>4,55; 128,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>54,74; 180,2</t>
+          <t>51,31; 182,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 75,12</t>
+          <t>-9,08; 80,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,59; 96,0</t>
+          <t>8,72; 89,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>36,56; 124,24</t>
+          <t>39,96; 129,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2,39; 76,88</t>
+          <t>1,57; 72,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,79; 88,88</t>
+          <t>21,46; 92,6</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 13,4</t>
+          <t>-1,04; 12,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 9,52</t>
+          <t>-3,7; 9,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,32; 32,16</t>
+          <t>17,15; 32,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 7,97</t>
+          <t>-8,25; 6,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 9,37</t>
+          <t>-6,15; 9,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,53; 32,16</t>
+          <t>17,76; 31,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 8,23</t>
+          <t>-2,61; 7,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 6,87</t>
+          <t>-3,16; 7,73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,68; 30,0</t>
+          <t>19,88; 30,44</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 85,13</t>
+          <t>-4,75; 78,29</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 60,8</t>
+          <t>-16,41; 62,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>71,87; 205,62</t>
+          <t>73,96; 206,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 31,3</t>
+          <t>-25,17; 28,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 36,87</t>
+          <t>-18,77; 33,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>51,3; 128,81</t>
+          <t>50,83; 123,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 37,5</t>
+          <t>-9,93; 33,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 30,46</t>
+          <t>-11,41; 35,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>72,7; 139,11</t>
+          <t>70,89; 139,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,0</t>
+          <t>-2,81; 5,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,04; 13,71</t>
+          <t>4,82; 13,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,15</t>
+          <t>8,34; 17,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,6; 11,28</t>
+          <t>1,48; 11,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,11; 15,61</t>
+          <t>6,18; 15,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,39; 46,13</t>
+          <t>13,14; 47,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,51; 6,96</t>
+          <t>0,77; 7,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,01</t>
+          <t>6,59; 13,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,95; 35,44</t>
+          <t>13,1; 36,22</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 40,49</t>
+          <t>-17,65; 43,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>30,57; 113,85</t>
+          <t>30,36; 116,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>48,02; 141,83</t>
+          <t>50,46; 144,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,88; 61,07</t>
+          <t>6,78; 62,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>26,87; 87,66</t>
+          <t>26,53; 85,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>63,37; 239,37</t>
+          <t>60,23; 240,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,33; 44,39</t>
+          <t>3,29; 44,08</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>33,53; 81,57</t>
+          <t>35,29; 82,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>71,26; 207,89</t>
+          <t>71,06; 216,12</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,36; 9,73</t>
+          <t>0,86; 9,83</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 1,29</t>
+          <t>-6,2; 1,47</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 2,87</t>
+          <t>-5,66; 2,78</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,25; 10,08</t>
+          <t>1,06; 10,02</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 4,29</t>
+          <t>-4,51; 4,43</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,99</t>
+          <t>-0,98; 8,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,82</t>
+          <t>2,69; 8,98</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,96</t>
+          <t>-4,14; 1,83</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,94</t>
+          <t>-2,58; 3,88</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,67; 59,03</t>
+          <t>4,56; 60,23</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 8,54</t>
+          <t>-30,47; 9,47</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 17,2</t>
+          <t>-28,73; 16,42</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,39; 42,45</t>
+          <t>4,14; 42,76</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 18,49</t>
+          <t>-16,32; 18,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 33,57</t>
+          <t>-3,41; 34,15</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>10,74; 42,43</t>
+          <t>11,37; 42,9</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 9,25</t>
+          <t>-17,02; 8,59</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 19,19</t>
+          <t>-10,84; 18,42</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,52</t>
+          <t>-1,17; 2,66</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,21</t>
+          <t>-1,54; 2,29</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,32</t>
+          <t>-0,19; 4,21</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,85</t>
+          <t>-2,52; 1,99</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>7,0; 16,26</t>
+          <t>7,17; 16,51</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,95</t>
+          <t>-0,02; 3,06</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,58</t>
+          <t>-1,34; 1,66</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,12</t>
+          <t>7,52; 12,72</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 14,51</t>
+          <t>-6,22; 15,32</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 12,82</t>
+          <t>-8,14; 13,38</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>32,07; 59,59</t>
+          <t>32,63; 61,02</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0,03; 15,7</t>
+          <t>-0,51; 14,98</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 6,47</t>
+          <t>-8,45; 7,15</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>23,18; 55,92</t>
+          <t>23,8; 56,72</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 12,69</t>
+          <t>-0,02; 13,25</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 6,94</t>
+          <t>-5,52; 7,24</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>31,38; 55,93</t>
+          <t>30,05; 54,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 3,51</t>
+          <t>-10,7; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 13,46</t>
+          <t>-1,33; 13,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 11,33</t>
+          <t>-5,18; 11,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 23,27</t>
+          <t>8,47; 24,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 5,21</t>
+          <t>-5,91; 5,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 16,79</t>
+          <t>5,98; 16,89</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 19,26</t>
+          <t>-38,58; 17,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 63,4</t>
+          <t>-4,73; 65,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 37,84</t>
+          <t>-13,32; 38,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,11; 76,52</t>
+          <t>21,8; 82,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 20,26</t>
+          <t>-17,81; 21,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 64,52</t>
+          <t>17,9; 62,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -2,19</t>
+          <t>-12,39; -2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -3,87</t>
+          <t>-13,22; -4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 8,3</t>
+          <t>-3,08; 8,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -6,98</t>
+          <t>-19,27; -6,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,25; -14,22</t>
+          <t>-25,78; -14,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,12; -0,6</t>
+          <t>-12,66; -0,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,2; -6,1</t>
+          <t>-14,03; -5,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,27; -10,61</t>
+          <t>-18,25; -10,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 1,69</t>
+          <t>-5,95; 1,95</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,56; -10,99</t>
+          <t>-52,06; -13,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,25; -20,77</t>
+          <t>-54,59; -20,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 44,82</t>
+          <t>-12,42; 43,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,14; -17,98</t>
+          <t>-42,85; -17,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,72; -37,25</t>
+          <t>-58,36; -36,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -1,71</t>
+          <t>-28,29; -2,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,91; -20,4</t>
+          <t>-41,35; -19,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,62; -34,76</t>
+          <t>-53,9; -35,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 5,75</t>
+          <t>-17,73; 6,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 8,43</t>
+          <t>-2,19; 8,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,49</t>
+          <t>-4,72; 5,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 25,96</t>
+          <t>14,81; 26,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 6,42</t>
+          <t>-7,99; 6,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 2,51</t>
+          <t>-10,88; 2,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 15,78</t>
+          <t>3,48; 16,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 5,27</t>
+          <t>-3,23; 5,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,97</t>
+          <t>-6,28; 2,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,91; 19,17</t>
+          <t>10,6; 19,64</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 77,06</t>
+          <t>-14,96; 86,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 56,53</t>
+          <t>-29,09; 61,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,14; 253,99</t>
+          <t>93,34; 270,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 27,42</t>
+          <t>-26,2; 25,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 10,54</t>
+          <t>-35,55; 10,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 68,91</t>
+          <t>10,92; 67,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 29,76</t>
+          <t>-14,66; 32,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 11,09</t>
+          <t>-28,49; 13,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,52; 107,14</t>
+          <t>45,76; 108,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 2,93</t>
+          <t>-7,75; 2,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 7,6</t>
+          <t>-4,82; 7,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,27; 18,13</t>
+          <t>3,71; 18,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 6,93</t>
+          <t>-4,94; 7,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 9,24</t>
+          <t>-4,99; 9,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 13,91</t>
+          <t>-0,96; 13,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,0</t>
+          <t>-4,88; 3,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 6,9</t>
+          <t>-2,41; 6,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 14,48</t>
+          <t>3,45; 14,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 17,64</t>
+          <t>-32,26; 13,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 43,5</t>
+          <t>-20,54; 43,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,64; 99,64</t>
+          <t>15,09; 102,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 22,49</t>
+          <t>-12,88; 23,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 30,64</t>
+          <t>-13,04; 30,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 44,28</t>
+          <t>-2,37; 43,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 11,84</t>
+          <t>-16,21; 13,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 27,03</t>
+          <t>-8,33; 27,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,51; 56,77</t>
+          <t>11,49; 56,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 14,38</t>
+          <t>-1,12; 13,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 13,94</t>
+          <t>-1,25; 13,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 15,04</t>
+          <t>0,73; 14,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 32,78</t>
+          <t>13,62; 31,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 14,77</t>
+          <t>-2,34; 14,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,53; 16,66</t>
+          <t>1,97; 16,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,91; 20,75</t>
+          <t>8,99; 20,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 12,06</t>
+          <t>0,26; 12,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,87; 14,64</t>
+          <t>4,4; 14,74</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 125,82</t>
+          <t>-6,31; 115,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 112,67</t>
+          <t>-8,89; 108,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,55; 128,97</t>
+          <t>3,8; 129,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>51,31; 182,84</t>
+          <t>45,88; 171,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 80,02</t>
+          <t>-9,27; 79,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,72; 89,39</t>
+          <t>6,87; 94,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>39,96; 129,4</t>
+          <t>41,64; 130,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,57; 72,39</t>
+          <t>1,54; 75,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,46; 92,6</t>
+          <t>18,32; 90,56</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 12,52</t>
+          <t>-1,59; 13,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,5</t>
+          <t>-4,07; 9,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,15; 32,33</t>
+          <t>17,41; 32,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 6,88</t>
+          <t>-8,73; 7,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 9,1</t>
+          <t>-6,97; 8,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,76; 31,54</t>
+          <t>17,45; 32,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,53</t>
+          <t>-2,37; 7,48</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 7,73</t>
+          <t>-3,63; 7,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,88; 30,44</t>
+          <t>19,7; 29,99</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 78,29</t>
+          <t>-8,32; 85,17</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 62,58</t>
+          <t>-19,65; 58,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>73,96; 206,41</t>
+          <t>74,04; 198,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 28,17</t>
+          <t>-26,08; 29,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 33,95</t>
+          <t>-20,36; 33,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>50,83; 123,48</t>
+          <t>52,0; 127,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 33,82</t>
+          <t>-9,08; 35,13</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 35,86</t>
+          <t>-13,29; 33,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>70,89; 139,29</t>
+          <t>71,56; 140,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,31</t>
+          <t>-2,8; 5,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,82; 13,73</t>
+          <t>4,69; 13,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,34; 17,22</t>
+          <t>8,29; 17,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 11,18</t>
+          <t>1,41; 11,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,18; 15,62</t>
+          <t>5,74; 15,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,14; 47,19</t>
+          <t>13,06; 43,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,28</t>
+          <t>0,6; 7,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,59; 13,14</t>
+          <t>6,65; 13,37</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,1; 36,22</t>
+          <t>13,06; 34,54</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 43,94</t>
+          <t>-17,84; 42,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>30,36; 116,06</t>
+          <t>28,36; 109,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>50,46; 144,11</t>
+          <t>51,78; 147,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,78; 62,98</t>
+          <t>6,22; 59,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>26,53; 85,58</t>
+          <t>24,31; 83,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>60,23; 240,44</t>
+          <t>59,87; 223,57</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,29; 44,08</t>
+          <t>3,18; 44,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>35,29; 82,54</t>
+          <t>36,02; 84,21</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>71,06; 216,12</t>
+          <t>71,3; 202,9</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,83</t>
+          <t>1,24; 9,74</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,47</t>
+          <t>-6,58; 1,27</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 2,78</t>
+          <t>-6,0; 2,57</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,02</t>
+          <t>0,96; 10,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,43</t>
+          <t>-4,87; 4,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 8,01</t>
+          <t>-1,07; 7,79</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,69; 8,98</t>
+          <t>2,58; 9,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,83</t>
+          <t>-4,13; 1,87</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,88</t>
+          <t>-2,16; 4,1</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>4,56; 60,23</t>
+          <t>6,6; 60,78</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 9,47</t>
+          <t>-31,47; 8,42</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 16,42</t>
+          <t>-29,87; 15,78</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,14; 42,76</t>
+          <t>3,5; 44,6</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 18,59</t>
+          <t>-17,41; 17,18</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 34,15</t>
+          <t>-3,72; 32,67</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,37; 42,9</t>
+          <t>11,06; 43,55</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 8,59</t>
+          <t>-17,5; 9,07</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 18,42</t>
+          <t>-9,32; 19,09</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,66</t>
+          <t>-1,23; 2,61</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,29</t>
+          <t>-1,61; 2,23</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,35</t>
+          <t>5,9; 10,35</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,21</t>
+          <t>-0,24; 4,36</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,99</t>
+          <t>-2,73; 1,7</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,51</t>
+          <t>7,12; 15,79</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,06</t>
+          <t>-0,13; 2,85</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,66</t>
+          <t>-1,48; 1,55</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,72</t>
+          <t>7,53; 12,92</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 15,32</t>
+          <t>-6,4; 15,18</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 13,38</t>
+          <t>-8,49; 12,95</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>32,63; 61,02</t>
+          <t>31,33; 60,11</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 14,98</t>
+          <t>-0,81; 15,43</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 7,15</t>
+          <t>-9,02; 6,03</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>23,8; 56,72</t>
+          <t>23,74; 53,59</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 13,25</t>
+          <t>-0,57; 12,3</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 7,24</t>
+          <t>-5,99; 6,77</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>30,05; 54,39</t>
+          <t>30,96; 55,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,05</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>9,86</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,36; 3,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 13,69</t>
+          <t>-2,24; 12,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,66; 10,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 24,12</t>
+          <t>7,59; 23,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 5,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 16,89</t>
+          <t>4,41; 15,74</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>33,35%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,31; 16,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 65,51</t>
+          <t>-8,79; 62,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,59; 35,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,8; 82,66</t>
+          <t>19,22; 79,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,18; 19,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 62,77</t>
+          <t>12,85; 57,61</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-2,92</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 8,29</t>
+          <t>-3,75; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -0,91</t>
+          <t>-12,95; -1,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,95</t>
+          <t>-6,77; 1,4</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,37%</t>
+          <t>-16,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>-9,15%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 43,92</t>
+          <t>-16,14; 38,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,29; -2,48</t>
+          <t>-28,78; -3,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 6,58</t>
+          <t>-20,16; 4,45</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,28</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,1</t>
+          <t>14,61</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 26,94</t>
+          <t>14,18; 26,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 16,15</t>
+          <t>3,23; 15,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,6; 19,64</t>
+          <t>10,12; 19,17</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>156,55%</t>
+          <t>151,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>75,19%</t>
+          <t>72,74%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,34; 270,77</t>
+          <t>88,98; 264,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,92; 67,59</t>
+          <t>10,27; 67,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,76; 108,9</t>
+          <t>43,79; 106,4</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>5,26</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 2,5</t>
+          <t>-9,78; 2,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 18,71</t>
+          <t>3,22; 18,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 7,21</t>
+          <t>-7,13; 6,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 13,87</t>
+          <t>-15,72; 9,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,4</t>
+          <t>-6,45; 2,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 14,28</t>
+          <t>-3,79; 11,64</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>-20,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>51,03%</t>
+          <t>48,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>-7,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>18,81%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 13,54</t>
+          <t>-41,7; 14,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,09; 102,04</t>
+          <t>13,98; 100,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 23,71</t>
+          <t>-18,18; 20,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 43,73</t>
+          <t>-43,31; 29,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 13,38</t>
+          <t>-21,45; 10,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,49; 56,7</t>
+          <t>-11,85; 43,53</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>9,72</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 14,74</t>
+          <t>0,82; 14,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 16,88</t>
+          <t>2,39; 17,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 14,74</t>
+          <t>4,61; 14,87</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>49,89%</t>
+          <t>50,83%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,8; 129,36</t>
+          <t>4,02; 130,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,87; 94,02</t>
+          <t>8,64; 96,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,32; 90,56</t>
+          <t>19,18; 91,44</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>25,03</t>
+          <t>24,54</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>24,89</t>
+          <t>24,96</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>24,88</t>
+          <t>24,55</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,41; 32,12</t>
+          <t>17,05; 31,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,45; 32,37</t>
+          <t>17,57; 32,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,7; 29,99</t>
+          <t>19,27; 29,59</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>130,78%</t>
+          <t>128,2%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>84,49%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>101,91%</t>
+          <t>100,57%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>74,04; 198,53</t>
+          <t>72,03; 195,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>52,0; 127,47</t>
+          <t>51,99; 127,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>71,56; 140,88</t>
+          <t>70,96; 139,17</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>23,75</t>
+          <t>30,25</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>19,36</t>
+          <t>23,05</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,29; 17,42</t>
+          <t>7,55; 16,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,06; 43,49</t>
+          <t>12,93; 54,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,06; 34,54</t>
+          <t>12,49; 44,37</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>115,33%</t>
+          <t>146,92%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>111,6%</t>
+          <t>132,81%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>51,78; 147,37</t>
+          <t>46,37; 139,92</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>59,87; 223,57</t>
+          <t>59,17; 283,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>71,3; 202,9</t>
+          <t>68,62; 261,46</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,75</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,57</t>
+          <t>-14,45; 1,11</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 7,79</t>
+          <t>-0,9; 7,97</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,1</t>
+          <t>-9,61; 2,69</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>-26,95%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>-7,84%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 15,78</t>
+          <t>-68,4; 5,75</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 32,67</t>
+          <t>-3,31; 32,9</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 19,09</t>
+          <t>-42,42; 12,3</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,98</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,35</t>
+          <t>1,25; 9,47</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>7,12; 15,79</t>
+          <t>6,47; 21,66</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,92</t>
+          <t>5,53; 15,09</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>37,77%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>31,33; 60,11</t>
+          <t>7,16; 53,44</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>23,74; 53,59</t>
+          <t>21,79; 75,42</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>30,96; 55,75</t>
+          <t>22,54; 63,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 3,24</t>
+          <t>-10,33; 3,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 3,54</t>
+          <t>-10,52; 4,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 12,94</t>
+          <t>-2,8; 13,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 10,48</t>
+          <t>-7,01; 10,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 11,53</t>
+          <t>-5,24; 11,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 23,62</t>
+          <t>6,92; 22,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 5,24</t>
+          <t>-6,42; 4,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,37</t>
+          <t>-5,97; 5,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 15,74</t>
+          <t>4,03; 15,47</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,31; 16,93</t>
+          <t>-38,12; 19,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 17,08</t>
+          <t>-36,46; 23,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 62,4</t>
+          <t>-10,62; 62,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 35,28</t>
+          <t>-18,06; 33,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 38,08</t>
+          <t>-13,43; 36,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 79,44</t>
+          <t>17,93; 75,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 19,94</t>
+          <t>-19,75; 17,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 21,23</t>
+          <t>-18,08; 20,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 57,61</t>
+          <t>11,76; 59,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -2,64</t>
+          <t>-12,59; -2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,22; -4,11</t>
+          <t>-13,54; -3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 7,59</t>
+          <t>-4,09; 7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -6,68</t>
+          <t>-18,52; -6,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,78; -14,36</t>
+          <t>-26,0; -14,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -1,18</t>
+          <t>-13,02; -1,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -5,62</t>
+          <t>-14,49; -6,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,25; -10,64</t>
+          <t>-18,28; -10,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 1,4</t>
+          <t>-7,16; 1,35</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,06; -13,21</t>
+          <t>-52,51; -13,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -20,98</t>
+          <t>-56,38; -19,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 38,51</t>
+          <t>-16,9; 38,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,85; -17,48</t>
+          <t>-41,69; -17,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,36; -36,64</t>
+          <t>-58,63; -36,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,78; -3,03</t>
+          <t>-28,83; -4,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,35; -19,4</t>
+          <t>-42,45; -21,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,9; -35,79</t>
+          <t>-53,74; -34,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 4,45</t>
+          <t>-21,03; 4,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 8,62</t>
+          <t>-2,72; 8,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,94</t>
+          <t>-4,73; 5,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 26,18</t>
+          <t>13,62; 25,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 6,02</t>
+          <t>-7,12; 6,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 2,48</t>
+          <t>-10,63; 2,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 15,83</t>
+          <t>3,22; 15,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,74</t>
+          <t>-3,39; 5,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,38</t>
+          <t>-6,24; 2,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,12; 19,17</t>
+          <t>9,86; 18,89</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 86,78</t>
+          <t>-18,34; 82,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 61,24</t>
+          <t>-30,16; 57,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,98; 264,62</t>
+          <t>83,3; 248,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 25,46</t>
+          <t>-24,21; 26,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 10,13</t>
+          <t>-35,67; 12,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,27; 67,05</t>
+          <t>9,35; 67,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 32,46</t>
+          <t>-15,98; 30,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 13,58</t>
+          <t>-28,46; 13,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,79; 106,4</t>
+          <t>43,05; 105,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 2,7</t>
+          <t>-9,93; 1,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 7,71</t>
+          <t>-4,41; 7,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 18,38</t>
+          <t>2,48; 17,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 6,49</t>
+          <t>-6,66; 6,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 9,78</t>
+          <t>-4,43; 9,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 9,97</t>
+          <t>-14,17; 10,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,72</t>
+          <t>-6,61; 2,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 6,89</t>
+          <t>-2,85; 6,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 11,64</t>
+          <t>-4,47; 11,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 14,77</t>
+          <t>-42,66; 6,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 43,88</t>
+          <t>-18,47; 40,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,98; 100,29</t>
+          <t>9,32; 97,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 20,94</t>
+          <t>-17,57; 20,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 30,33</t>
+          <t>-11,99; 30,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 29,15</t>
+          <t>-37,02; 31,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 10,53</t>
+          <t>-22,02; 8,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 27,05</t>
+          <t>-8,97; 25,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 43,53</t>
+          <t>-14,75; 44,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 13,87</t>
+          <t>-0,95; 14,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 13,75</t>
+          <t>-1,11; 14,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 14,78</t>
+          <t>1,33; 15,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,62; 31,98</t>
+          <t>13,37; 31,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 14,71</t>
+          <t>-2,59; 14,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 17,13</t>
+          <t>2,5; 18,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,99; 20,99</t>
+          <t>9,13; 21,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,26; 12,01</t>
+          <t>0,21; 12,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 14,87</t>
+          <t>4,02; 14,29</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 115,46</t>
+          <t>-6,47; 126,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 108,58</t>
+          <t>-5,45; 127,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,02; 130,03</t>
+          <t>3,94; 134,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>45,88; 171,94</t>
+          <t>49,47; 180,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 79,78</t>
+          <t>-10,7; 77,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,64; 96,57</t>
+          <t>7,44; 99,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>41,64; 130,85</t>
+          <t>40,58; 129,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,54; 75,67</t>
+          <t>0,82; 73,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,18; 91,44</t>
+          <t>17,67; 87,41</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 13,49</t>
+          <t>-1,18; 12,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 9,5</t>
+          <t>-3,84; 10,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,05; 31,65</t>
+          <t>17,14; 31,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 7,61</t>
+          <t>-7,87; 7,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 8,58</t>
+          <t>-7,64; 9,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,57; 32,42</t>
+          <t>17,23; 31,79</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 7,48</t>
+          <t>-2,39; 8,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 7,18</t>
+          <t>-2,7; 8,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,27; 29,59</t>
+          <t>19,58; 29,57</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 85,17</t>
+          <t>-6,0; 81,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 58,92</t>
+          <t>-17,59; 64,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>72,03; 195,42</t>
+          <t>72,13; 209,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 29,64</t>
+          <t>-22,97; 29,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 33,98</t>
+          <t>-22,33; 36,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>51,99; 127,72</t>
+          <t>49,79; 125,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 35,13</t>
+          <t>-8,85; 38,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 33,44</t>
+          <t>-10,3; 35,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>70,96; 139,17</t>
+          <t>71,65; 141,81</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,27</t>
+          <t>-2,86; 5,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,3</t>
+          <t>4,84; 13,57</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,55; 16,85</t>
+          <t>7,81; 16,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,41; 11,05</t>
+          <t>1,13; 10,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,66</t>
+          <t>5,62; 15,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,93; 54,24</t>
+          <t>12,99; 55,85</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 7,06</t>
+          <t>0,38; 6,84</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,37</t>
+          <t>6,52; 13,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,49; 44,37</t>
+          <t>12,31; 46,13</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 42,83</t>
+          <t>-17,8; 42,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>28,36; 109,19</t>
+          <t>29,8; 112,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>46,37; 139,92</t>
+          <t>48,83; 137,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,22; 59,73</t>
+          <t>4,46; 56,96</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,31; 83,05</t>
+          <t>24,39; 81,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>59,17; 283,82</t>
+          <t>59,96; 291,07</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,18; 44,82</t>
+          <t>2,88; 43,68</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>36,02; 84,21</t>
+          <t>33,55; 83,42</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>68,62; 261,46</t>
+          <t>68,28; 266,82</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,74</t>
+          <t>1,12; 9,56</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,27</t>
+          <t>-5,93; 1,54</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 1,11</t>
+          <t>-14,22; 1,11</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,6</t>
+          <t>1,27; 10,72</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,13</t>
+          <t>-4,79; 4,65</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,97</t>
+          <t>-0,63; 8,56</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,06</t>
+          <t>2,62; 9,42</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,87</t>
+          <t>-4,55; 1,56</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 2,69</t>
+          <t>-10,26; 2,77</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,6; 60,78</t>
+          <t>5,67; 59,03</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 8,42</t>
+          <t>-29,66; 9,28</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-68,4; 5,75</t>
+          <t>-70,99; 6,37</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>3,5; 44,6</t>
+          <t>4,21; 45,57</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 17,18</t>
+          <t>-17,05; 20,3</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 32,9</t>
+          <t>-2,58; 37,2</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,06; 43,55</t>
+          <t>10,94; 45,5</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 9,07</t>
+          <t>-19,11; 7,62</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 12,3</t>
+          <t>-45,08; 12,54</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,61</t>
+          <t>-1,08; 2,72</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,23</t>
+          <t>-1,53; 2,4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,25; 9,47</t>
+          <t>1,07; 9,42</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,36</t>
+          <t>-0,26; 4,38</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,7</t>
+          <t>-2,65; 1,66</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>6,47; 21,66</t>
+          <t>6,26; 22,25</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,85</t>
+          <t>-0,08; 2,91</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,55</t>
+          <t>-1,54; 1,49</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,09</t>
+          <t>5,51; 15,81</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,18</t>
+          <t>-5,73; 15,82</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 12,95</t>
+          <t>-7,92; 14,26</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>7,16; 53,44</t>
+          <t>6,22; 53,24</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 15,43</t>
+          <t>-0,92; 15,5</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 6,03</t>
+          <t>-8,8; 5,84</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>21,79; 75,42</t>
+          <t>21,23; 78,83</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 12,3</t>
+          <t>-0,34; 12,62</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,77</t>
+          <t>-6,2; 6,54</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>22,54; 63,98</t>
+          <t>22,45; 65,63</t>
         </is>
       </c>
     </row>
